--- a/3.1.3/Baldin_V/data.xlsx
+++ b/3.1.3/Baldin_V/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -170,7 +170,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,8 +299,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -323,13 +323,13 @@
       <c r="B2" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -340,13 +340,13 @@
       <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="2" t="n">
         <v>37.8</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="1" t="n">
         <f aca="false">F3/10</f>
         <v>3.78</v>
       </c>
@@ -358,13 +358,13 @@
       <c r="B4" s="1" t="n">
         <v>17.19</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="2" t="n">
         <v>35.3</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="1" t="n">
         <f aca="false">F4/10</f>
         <v>3.53</v>
       </c>
@@ -377,13 +377,13 @@
         <f aca="false">SQRT(B1/B3*980*(B4/10)^4/6)</f>
         <v>34.3453681876451</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="2" t="n">
         <v>33.7</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="1" t="n">
         <f aca="false">F5/10</f>
         <v>3.37</v>
       </c>
@@ -396,13 +396,13 @@
         <f aca="false">B5*6/PI()/(B2/10)^3</f>
         <v>262.329967696066</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="1" t="n">
         <f aca="false">F6/10</f>
         <v>3</v>
       </c>
@@ -414,13 +414,13 @@
       <c r="B7" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="2" t="n">
         <v>27.3</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="1" t="n">
         <f aca="false">F7/10</f>
         <v>2.73</v>
       </c>
@@ -432,13 +432,13 @@
       <c r="B8" s="1" t="n">
         <v>110.652</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="2" t="n">
         <v>24.3</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">F8/10</f>
         <v>2.43</v>
       </c>
@@ -450,13 +450,13 @@
       <c r="B9" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="2" t="n">
         <v>20.6</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="1" t="n">
         <f aca="false">F9/10</f>
         <v>2.06</v>
       </c>
@@ -469,13 +469,13 @@
         <f aca="false">(B7+B8)*980</f>
         <v>132938.96</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="2" t="n">
         <v>17.5</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="1" t="n">
         <f aca="false">F10/10</f>
         <v>1.75</v>
       </c>
@@ -487,13 +487,13 @@
       <c r="B11" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="2" t="n">
         <v>14.1</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="1" t="n">
         <f aca="false">F11/10</f>
         <v>1.41</v>
       </c>
@@ -535,10 +535,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <f aca="false">4*PI()*B6</f>
         <v>3296.53559732163</v>
       </c>
@@ -597,71 +597,77 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="n">
+      <c r="C2" s="0" t="n">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>0.284</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0.284</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="C6" s="0" t="n">
         <v>0.237</v>
       </c>
     </row>
